--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Clcf1-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Clcf1-Il6st.xlsx
@@ -543,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.431948666666667</v>
+        <v>1.625602666666667</v>
       </c>
       <c r="H2">
-        <v>4.295846000000001</v>
+        <v>4.876808</v>
       </c>
       <c r="I2">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208746</v>
       </c>
       <c r="J2">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208747</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N2">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O2">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P2">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q2">
-        <v>72.25007496372113</v>
+        <v>84.46007712256801</v>
       </c>
       <c r="R2">
-        <v>650.2506746734903</v>
+        <v>760.1406941031121</v>
       </c>
       <c r="S2">
-        <v>0.01473979523288491</v>
+        <v>0.01825047529663624</v>
       </c>
       <c r="T2">
-        <v>0.01473979523288491</v>
+        <v>0.01825047529663624</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.431948666666667</v>
+        <v>1.625602666666667</v>
       </c>
       <c r="H3">
-        <v>4.295846000000001</v>
+        <v>4.876808</v>
       </c>
       <c r="I3">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208746</v>
       </c>
       <c r="J3">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208747</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>447.796844</v>
       </c>
       <c r="O3">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P3">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q3">
-        <v>213.7406979011138</v>
+        <v>242.6465812437725</v>
       </c>
       <c r="R3">
-        <v>1923.666281110025</v>
+        <v>2183.819231193952</v>
       </c>
       <c r="S3">
-        <v>0.04360540970481049</v>
+        <v>0.05243205532924407</v>
       </c>
       <c r="T3">
-        <v>0.04360540970481048</v>
+        <v>0.05243205532924408</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.431948666666667</v>
+        <v>1.625602666666667</v>
       </c>
       <c r="H4">
-        <v>4.295846000000001</v>
+        <v>4.876808</v>
       </c>
       <c r="I4">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208746</v>
       </c>
       <c r="J4">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208747</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N4">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O4">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P4">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q4">
-        <v>19.02375927048423</v>
+        <v>25.26073727174934</v>
       </c>
       <c r="R4">
-        <v>171.213833434358</v>
+        <v>227.346635445744</v>
       </c>
       <c r="S4">
-        <v>0.003881052252851415</v>
+        <v>0.005458442346481038</v>
       </c>
       <c r="T4">
-        <v>0.003881052252851414</v>
+        <v>0.005458442346481039</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.431948666666667</v>
+        <v>1.625602666666667</v>
       </c>
       <c r="H5">
-        <v>4.295846000000001</v>
+        <v>4.876808</v>
       </c>
       <c r="I5">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208746</v>
       </c>
       <c r="J5">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208747</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N5">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O5">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P5">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q5">
-        <v>44.8932551016669</v>
+        <v>25.50258847595289</v>
       </c>
       <c r="R5">
-        <v>404.0392959150021</v>
+        <v>229.523296283576</v>
       </c>
       <c r="S5">
-        <v>0.009158708663880327</v>
+        <v>0.005510702533520333</v>
       </c>
       <c r="T5">
-        <v>0.009158708663880324</v>
+        <v>0.005510702533520334</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.431948666666667</v>
+        <v>1.625602666666667</v>
       </c>
       <c r="H6">
-        <v>4.295846000000001</v>
+        <v>4.876808</v>
       </c>
       <c r="I6">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208746</v>
       </c>
       <c r="J6">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208747</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N6">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O6">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P6">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q6">
-        <v>5.470174213995334</v>
+        <v>6.117972433894221</v>
       </c>
       <c r="R6">
-        <v>49.23156792595801</v>
+        <v>55.061751905048</v>
       </c>
       <c r="S6">
-        <v>0.001115974590240698</v>
+        <v>0.00132199624454822</v>
       </c>
       <c r="T6">
-        <v>0.001115974590240698</v>
+        <v>0.001321996244548221</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.431948666666667</v>
+        <v>1.625602666666667</v>
       </c>
       <c r="H7">
-        <v>4.295846000000001</v>
+        <v>4.876808</v>
       </c>
       <c r="I7">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208746</v>
       </c>
       <c r="J7">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208747</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N7">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O7">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P7">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q7">
-        <v>24.95120528926578</v>
+        <v>23.01722244051556</v>
       </c>
       <c r="R7">
-        <v>224.560847603392</v>
+        <v>207.15500196464</v>
       </c>
       <c r="S7">
-        <v>0.005090315227522232</v>
+        <v>0.004973654581657551</v>
       </c>
       <c r="T7">
-        <v>0.005090315227522231</v>
+        <v>0.004973654581657552</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>15.697404</v>
       </c>
       <c r="I8">
-        <v>0.2835253608145308</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="J8">
-        <v>0.2835253608145307</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N8">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O8">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P8">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q8">
-        <v>264.00821066114</v>
+        <v>271.858960300284</v>
       </c>
       <c r="R8">
-        <v>2376.07389595026</v>
+        <v>2446.730642702556</v>
       </c>
       <c r="S8">
-        <v>0.05386052494616159</v>
+        <v>0.05874438442590294</v>
       </c>
       <c r="T8">
-        <v>0.05386052494616156</v>
+        <v>0.05874438442590294</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>15.697404</v>
       </c>
       <c r="I9">
-        <v>0.2835253608145308</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="J9">
-        <v>0.2835253608145307</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>447.796844</v>
       </c>
       <c r="O9">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P9">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q9">
         <v>781.027552243664</v>
@@ -1013,10 +1013,10 @@
         <v>7029.247970192976</v>
       </c>
       <c r="S9">
-        <v>0.1593380518579881</v>
+        <v>0.1687675945113068</v>
       </c>
       <c r="T9">
-        <v>0.1593380518579881</v>
+        <v>0.1687675945113068</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>15.697404</v>
       </c>
       <c r="I10">
-        <v>0.2835253608145308</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="J10">
-        <v>0.2835253608145307</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N10">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O10">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P10">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q10">
-        <v>69.514511196988</v>
+        <v>81.308921387208</v>
       </c>
       <c r="R10">
-        <v>625.630600772892</v>
+        <v>731.780292484872</v>
       </c>
       <c r="S10">
-        <v>0.01418171069403298</v>
+        <v>0.01756956081178936</v>
       </c>
       <c r="T10">
-        <v>0.01418171069403297</v>
+        <v>0.01756956081178936</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>15.697404</v>
       </c>
       <c r="I11">
-        <v>0.2835253608145308</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="J11">
-        <v>0.2835253608145307</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N11">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O11">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P11">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q11">
-        <v>164.043953671972</v>
+        <v>82.087388790532</v>
       </c>
       <c r="R11">
-        <v>1476.395583047748</v>
+        <v>738.7864991147879</v>
       </c>
       <c r="S11">
-        <v>0.03346673740521184</v>
+        <v>0.01773777519896051</v>
       </c>
       <c r="T11">
-        <v>0.03346673740521183</v>
+        <v>0.01773777519896051</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>15.697404</v>
       </c>
       <c r="I12">
-        <v>0.2835253608145308</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="J12">
-        <v>0.2835253608145307</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N12">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O12">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P12">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q12">
-        <v>19.988503914588</v>
+        <v>19.692447386836</v>
       </c>
       <c r="R12">
-        <v>179.896535231292</v>
+        <v>177.2320264815239</v>
       </c>
       <c r="S12">
-        <v>0.004077870574676719</v>
+        <v>0.00425522373182545</v>
       </c>
       <c r="T12">
-        <v>0.004077870574676718</v>
+        <v>0.00425522373182545</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>15.697404</v>
       </c>
       <c r="I13">
-        <v>0.2835253608145308</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="J13">
-        <v>0.2835253608145307</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N13">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O13">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P13">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q13">
-        <v>91.17392702451198</v>
+        <v>74.08752602248001</v>
       </c>
       <c r="R13">
-        <v>820.5653432206078</v>
+        <v>666.7877342023201</v>
       </c>
       <c r="S13">
-        <v>0.01860046533645954</v>
+        <v>0.01600913247450577</v>
       </c>
       <c r="T13">
-        <v>0.01860046533645953</v>
+        <v>0.01600913247450577</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.834573333333333</v>
+        <v>3.405616666666667</v>
       </c>
       <c r="H14">
-        <v>5.50372</v>
+        <v>10.21685</v>
       </c>
       <c r="I14">
-        <v>0.09940778735274632</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="J14">
-        <v>0.0994077873527463</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N14">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O14">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P14">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q14">
-        <v>92.56481321242224</v>
+        <v>176.94277464885</v>
       </c>
       <c r="R14">
-        <v>833.0833189118001</v>
+        <v>1592.48497183965</v>
       </c>
       <c r="S14">
-        <v>0.01888422113342362</v>
+        <v>0.03823451087974715</v>
       </c>
       <c r="T14">
-        <v>0.01888422113342361</v>
+        <v>0.03823451087974716</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.834573333333333</v>
+        <v>3.405616666666667</v>
       </c>
       <c r="H15">
-        <v>5.50372</v>
+        <v>10.21685</v>
       </c>
       <c r="I15">
-        <v>0.09940778735274632</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="J15">
-        <v>0.0994077873527463</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>447.796844</v>
       </c>
       <c r="O15">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P15">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q15">
-        <v>273.8387162510755</v>
+        <v>508.3414650690444</v>
       </c>
       <c r="R15">
-        <v>2464.54844625968</v>
+        <v>4575.0731856214</v>
       </c>
       <c r="S15">
-        <v>0.05586605420691514</v>
+        <v>0.1098444811627989</v>
       </c>
       <c r="T15">
-        <v>0.05586605420691512</v>
+        <v>0.109844481162799</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.834573333333333</v>
+        <v>3.405616666666667</v>
       </c>
       <c r="H16">
-        <v>5.50372</v>
+        <v>10.21685</v>
       </c>
       <c r="I16">
-        <v>0.09940778735274632</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="J16">
-        <v>0.0994077873527463</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N16">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O16">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P16">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q16">
-        <v>24.37271828928445</v>
+        <v>52.92091950203334</v>
       </c>
       <c r="R16">
-        <v>219.35446460356</v>
+        <v>476.2882755183</v>
       </c>
       <c r="S16">
-        <v>0.004972297634753058</v>
+        <v>0.01143536647078269</v>
       </c>
       <c r="T16">
-        <v>0.004972297634753056</v>
+        <v>0.01143536647078269</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.834573333333333</v>
+        <v>3.405616666666667</v>
       </c>
       <c r="H17">
-        <v>5.50372</v>
+        <v>10.21685</v>
       </c>
       <c r="I17">
-        <v>0.09940778735274632</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="J17">
-        <v>0.0994077873527463</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N17">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O17">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P17">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q17">
-        <v>57.51600638573778</v>
+        <v>53.42759466243889</v>
       </c>
       <c r="R17">
-        <v>517.6440574716399</v>
+        <v>480.84835196195</v>
       </c>
       <c r="S17">
-        <v>0.01173388618855784</v>
+        <v>0.01154485089008983</v>
       </c>
       <c r="T17">
-        <v>0.01173388618855783</v>
+        <v>0.01154485089008983</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.834573333333333</v>
+        <v>3.405616666666667</v>
       </c>
       <c r="H18">
-        <v>5.50372</v>
+        <v>10.21685</v>
       </c>
       <c r="I18">
-        <v>0.09940778735274632</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="J18">
-        <v>0.0994077873527463</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N18">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O18">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P18">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q18">
-        <v>7.008237079506667</v>
+        <v>12.81707351637222</v>
       </c>
       <c r="R18">
-        <v>63.07413371556001</v>
+        <v>115.35366164735</v>
       </c>
       <c r="S18">
-        <v>0.00142975601820911</v>
+        <v>0.002769565119461846</v>
       </c>
       <c r="T18">
-        <v>0.001429756018209109</v>
+        <v>0.002769565119461846</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.834573333333333</v>
+        <v>3.405616666666667</v>
       </c>
       <c r="H19">
-        <v>5.50372</v>
+        <v>10.21685</v>
       </c>
       <c r="I19">
-        <v>0.09940778735274632</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="J19">
-        <v>0.0994077873527463</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N19">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O19">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P19">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q19">
-        <v>31.96679945571555</v>
+        <v>48.22078480255556</v>
       </c>
       <c r="R19">
-        <v>287.70119510144</v>
+        <v>433.987063223</v>
       </c>
       <c r="S19">
-        <v>0.006521572170887563</v>
+        <v>0.0104197423422468</v>
       </c>
       <c r="T19">
-        <v>0.006521572170887561</v>
+        <v>0.0104197423422468</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.253622</v>
+        <v>5.048711333333333</v>
       </c>
       <c r="H20">
-        <v>18.760866</v>
+        <v>15.146134</v>
       </c>
       <c r="I20">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="J20">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N20">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O20">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P20">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q20">
-        <v>315.5313237216433</v>
+        <v>262.311668974614</v>
       </c>
       <c r="R20">
-        <v>2839.78191349479</v>
+        <v>2360.805020771526</v>
       </c>
       <c r="S20">
-        <v>0.06437179620302788</v>
+        <v>0.05668136707587057</v>
       </c>
       <c r="T20">
-        <v>0.06437179620302787</v>
+        <v>0.05668136707587057</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.253622</v>
+        <v>5.048711333333333</v>
       </c>
       <c r="H21">
-        <v>18.760866</v>
+        <v>15.146134</v>
       </c>
       <c r="I21">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="J21">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>447.796844</v>
       </c>
       <c r="O21">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P21">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q21">
-        <v>933.4507317229893</v>
+        <v>753.5990004445662</v>
       </c>
       <c r="R21">
-        <v>8401.056585506905</v>
+        <v>6782.391004001096</v>
       </c>
       <c r="S21">
-        <v>0.1904340258815257</v>
+        <v>0.1628407220280447</v>
       </c>
       <c r="T21">
-        <v>0.1904340258815257</v>
+        <v>0.1628407220280447</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.253622</v>
+        <v>5.048711333333333</v>
       </c>
       <c r="H22">
-        <v>18.760866</v>
+        <v>15.146134</v>
       </c>
       <c r="I22">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="J22">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N22">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O22">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P22">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q22">
-        <v>83.08077116586867</v>
+        <v>78.45347031433468</v>
       </c>
       <c r="R22">
-        <v>747.726940492818</v>
+        <v>706.081232829012</v>
       </c>
       <c r="S22">
-        <v>0.01694937417559742</v>
+        <v>0.0169525433872066</v>
       </c>
       <c r="T22">
-        <v>0.01694937417559742</v>
+        <v>0.0169525433872066</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.253622</v>
+        <v>5.048711333333333</v>
       </c>
       <c r="H23">
-        <v>18.760866</v>
+        <v>15.146134</v>
       </c>
       <c r="I23">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="J23">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N23">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O23">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P23">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q23">
-        <v>196.0583184933047</v>
+        <v>79.20459907456645</v>
       </c>
       <c r="R23">
-        <v>1764.524866439742</v>
+        <v>712.841391671098</v>
       </c>
       <c r="S23">
-        <v>0.03999801342415389</v>
+        <v>0.01711485032973175</v>
       </c>
       <c r="T23">
-        <v>0.03999801342415388</v>
+        <v>0.01711485032973175</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.253622</v>
+        <v>5.048711333333333</v>
       </c>
       <c r="H24">
-        <v>18.760866</v>
+        <v>15.146134</v>
       </c>
       <c r="I24">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="J24">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N24">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O24">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P24">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q24">
-        <v>23.889405119602</v>
+        <v>19.00087727301711</v>
       </c>
       <c r="R24">
-        <v>215.004646076418</v>
+        <v>171.007895457154</v>
       </c>
       <c r="S24">
-        <v>0.004873696530767311</v>
+        <v>0.004105786462666587</v>
       </c>
       <c r="T24">
-        <v>0.004873696530767311</v>
+        <v>0.004105786462666587</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.253622</v>
+        <v>5.048711333333333</v>
       </c>
       <c r="H25">
-        <v>18.760866</v>
+        <v>15.146134</v>
       </c>
       <c r="I25">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="J25">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N25">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O25">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P25">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q25">
-        <v>108.9671787513813</v>
+        <v>71.48567985285779</v>
       </c>
       <c r="R25">
-        <v>980.7046087624319</v>
+        <v>643.37111867572</v>
       </c>
       <c r="S25">
-        <v>0.02223048076707221</v>
+        <v>0.0154469150238228</v>
       </c>
       <c r="T25">
-        <v>0.0222304807670722</v>
+        <v>0.0154469150238228</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1.326571</v>
+        <v>2.689098</v>
       </c>
       <c r="H26">
-        <v>3.979713</v>
+        <v>8.067294</v>
       </c>
       <c r="I26">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="J26">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N26">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O26">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P26">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q26">
-        <v>66.93316347562168</v>
+        <v>139.715214010974</v>
       </c>
       <c r="R26">
-        <v>602.3984712805951</v>
+        <v>1257.436926098766</v>
       </c>
       <c r="S26">
-        <v>0.01365508789319964</v>
+        <v>0.03019022890745376</v>
       </c>
       <c r="T26">
-        <v>0.01365508789319963</v>
+        <v>0.03019022890745376</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>1.326571</v>
+        <v>2.689098</v>
       </c>
       <c r="H27">
-        <v>3.979713</v>
+        <v>8.067294</v>
       </c>
       <c r="I27">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="J27">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>447.796844</v>
       </c>
       <c r="O27">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P27">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q27">
-        <v>198.0114357139747</v>
+        <v>401.389865868904</v>
       </c>
       <c r="R27">
-        <v>1782.102921425772</v>
+        <v>3612.508792820136</v>
       </c>
       <c r="S27">
-        <v>0.04039647042109062</v>
+        <v>0.08673394674657658</v>
       </c>
       <c r="T27">
-        <v>0.0403964704210906</v>
+        <v>0.08673394674657661</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>1.326571</v>
+        <v>2.689098</v>
       </c>
       <c r="H28">
-        <v>3.979713</v>
+        <v>8.067294</v>
       </c>
       <c r="I28">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="J28">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N28">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O28">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P28">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q28">
-        <v>17.62379332909434</v>
+        <v>41.786716685988</v>
       </c>
       <c r="R28">
-        <v>158.614139961849</v>
+        <v>376.080450173892</v>
       </c>
       <c r="S28">
-        <v>0.003595444088161461</v>
+        <v>0.009029442863264741</v>
       </c>
       <c r="T28">
-        <v>0.00359544408816146</v>
+        <v>0.009029442863264743</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>1.326571</v>
+        <v>2.689098</v>
       </c>
       <c r="H29">
-        <v>3.979713</v>
+        <v>8.067294</v>
       </c>
       <c r="I29">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="J29">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N29">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O29">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P29">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q29">
-        <v>41.58954276769234</v>
+        <v>42.186790826402</v>
       </c>
       <c r="R29">
-        <v>374.305884909231</v>
+        <v>379.681117437618</v>
       </c>
       <c r="S29">
-        <v>0.008484715684141648</v>
+        <v>0.009115892502729938</v>
       </c>
       <c r="T29">
-        <v>0.008484715684141645</v>
+        <v>0.00911589250272994</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>1.326571</v>
+        <v>2.689098</v>
       </c>
       <c r="H30">
-        <v>3.979713</v>
+        <v>8.067294</v>
       </c>
       <c r="I30">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="J30">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N30">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O30">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P30">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q30">
-        <v>5.067621937961001</v>
+        <v>10.120448110346</v>
       </c>
       <c r="R30">
-        <v>45.608597441649</v>
+        <v>91.08403299311399</v>
       </c>
       <c r="S30">
-        <v>0.001033849580373825</v>
+        <v>0.002186867387780366</v>
       </c>
       <c r="T30">
-        <v>0.001033849580373825</v>
+        <v>0.002186867387780366</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>1.326571</v>
+        <v>2.689098</v>
       </c>
       <c r="H31">
-        <v>3.979713</v>
+        <v>8.067294</v>
       </c>
       <c r="I31">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="J31">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N31">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O31">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P31">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q31">
-        <v>23.11503625953067</v>
+        <v>38.07545847428</v>
       </c>
       <c r="R31">
-        <v>208.035326335776</v>
+        <v>342.6791262685201</v>
       </c>
       <c r="S31">
-        <v>0.004715716923993128</v>
+        <v>0.008227499168447573</v>
       </c>
       <c r="T31">
-        <v>0.004715716923993127</v>
+        <v>0.008227499168447575</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>2.375843333333334</v>
+        <v>0.4823246666666667</v>
       </c>
       <c r="H32">
-        <v>7.12753</v>
+        <v>1.446974</v>
       </c>
       <c r="I32">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="J32">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N32">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O32">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P32">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q32">
-        <v>119.8750087424389</v>
+        <v>25.059739000254</v>
       </c>
       <c r="R32">
-        <v>1078.87507868195</v>
+        <v>225.537651002286</v>
       </c>
       <c r="S32">
-        <v>0.02445579583538241</v>
+        <v>0.005415009826483824</v>
       </c>
       <c r="T32">
-        <v>0.02445579583538239</v>
+        <v>0.005415009826483825</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>2.375843333333334</v>
+        <v>0.4823246666666667</v>
       </c>
       <c r="H33">
-        <v>7.12753</v>
+        <v>1.446974</v>
       </c>
       <c r="I33">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="J33">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>447.796844</v>
       </c>
       <c r="O33">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P33">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q33">
-        <v>354.6317155017023</v>
+        <v>71.99448783889511</v>
       </c>
       <c r="R33">
-        <v>3191.68543951532</v>
+        <v>647.950390550056</v>
       </c>
       <c r="S33">
-        <v>0.07234869821528236</v>
+        <v>0.01555686031272455</v>
       </c>
       <c r="T33">
-        <v>0.07234869821528234</v>
+        <v>0.01555686031272456</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>2.375843333333334</v>
+        <v>0.4823246666666667</v>
       </c>
       <c r="H34">
-        <v>7.12753</v>
+        <v>1.446974</v>
       </c>
       <c r="I34">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="J34">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N34">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O34">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P34">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q34">
-        <v>31.56361166418778</v>
+        <v>7.494990586681334</v>
       </c>
       <c r="R34">
-        <v>284.07250497769</v>
+        <v>67.454915280132</v>
       </c>
       <c r="S34">
-        <v>0.006439317508999634</v>
+        <v>0.001619547900154579</v>
       </c>
       <c r="T34">
-        <v>0.006439317508999631</v>
+        <v>0.001619547900154579</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>2.375843333333334</v>
+        <v>0.4823246666666667</v>
       </c>
       <c r="H35">
-        <v>7.12753</v>
+        <v>1.446974</v>
       </c>
       <c r="I35">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="J35">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N35">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O35">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P35">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q35">
-        <v>74.48545002190112</v>
+        <v>7.566749082064223</v>
       </c>
       <c r="R35">
-        <v>670.3690501971099</v>
+        <v>68.10074173857801</v>
       </c>
       <c r="S35">
-        <v>0.01519583587564986</v>
+        <v>0.001635053766262287</v>
       </c>
       <c r="T35">
-        <v>0.01519583587564985</v>
+        <v>0.001635053766262287</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>2.375843333333334</v>
+        <v>0.4823246666666667</v>
       </c>
       <c r="H36">
-        <v>7.12753</v>
+        <v>1.446974</v>
       </c>
       <c r="I36">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="J36">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N36">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O36">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P36">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q36">
-        <v>9.075937735076668</v>
+        <v>1.815233867021555</v>
       </c>
       <c r="R36">
-        <v>81.68343961569001</v>
+        <v>16.337104803194</v>
       </c>
       <c r="S36">
-        <v>0.00185158927279476</v>
+        <v>0.0003922430807115877</v>
       </c>
       <c r="T36">
-        <v>0.001851589272794759</v>
+        <v>0.0003922430807115877</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>2.375843333333334</v>
+        <v>0.4823246666666667</v>
       </c>
       <c r="H37">
-        <v>7.12753</v>
+        <v>1.446974</v>
       </c>
       <c r="I37">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="J37">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N37">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O37">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P37">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q37">
-        <v>41.39824012206222</v>
+        <v>6.829328204768889</v>
       </c>
       <c r="R37">
-        <v>372.5841610985599</v>
+        <v>61.46395384292001</v>
       </c>
       <c r="S37">
-        <v>0.008445687879319121</v>
+        <v>0.001475708878561418</v>
       </c>
       <c r="T37">
-        <v>0.008445687879319118</v>
+        <v>0.001475708878561418</v>
       </c>
     </row>
   </sheetData>
